--- a/יומן אירועים קוד/events.xlsx
+++ b/יומן אירועים קוד/events.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>date</t>
   </si>
@@ -123,9 +123,6 @@
     <t>015</t>
   </si>
   <si>
-    <t>016</t>
-  </si>
-  <si>
     <t>017</t>
   </si>
   <si>
@@ -165,13 +162,13 @@
     <t>10015</t>
   </si>
   <si>
-    <t>10016</t>
-  </si>
-  <si>
     <t>10017</t>
   </si>
   <si>
     <t>1045</t>
+  </si>
+  <si>
+    <t>30001</t>
   </si>
 </sst>
 </file>
@@ -493,11 +490,12 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
     <col min="3" max="5" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -523,19 +521,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
+      <c r="C2" s="1">
+        <v>1000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -543,39 +541,39 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -589,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -603,19 +601,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -623,19 +621,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -643,47 +641,47 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>14</v>
       </c>
-      <c r="C8" s="1">
-        <v>1000</v>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -692,18 +690,18 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -712,10 +710,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -735,7 +733,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -755,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -769,13 +767,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -789,16 +787,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -809,13 +807,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -829,13 +827,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -843,19 +841,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -863,28 +861,28 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F19">
     <sortState ref="A2:F19">
-      <sortCondition ref="A1:A19"/>
+      <sortCondition ref="D1:D19"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
